--- a/6/1.xlsx
+++ b/6/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Desktop\PAS\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA368A4-559E-460F-82D7-BAECEBC78A6D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FDF8C5-6EAD-4909-A798-3E16EB9A68E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{41422B86-A465-485E-A3F6-9BAAF425347B}"/>
   </bookViews>
@@ -167,6 +167,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -638,6 +641,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -955,8 +959,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,27 +1316,27 @@
         <v>240</v>
       </c>
       <c r="L25">
-        <f>B25*$I$25</f>
+        <f t="shared" ref="L25:Q25" si="0">B25*$I$25</f>
         <v>2160</v>
       </c>
       <c r="M25">
-        <f>C25*$I$25</f>
+        <f t="shared" si="0"/>
         <v>960</v>
       </c>
       <c r="N25">
-        <f>D25*$I$25</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="O25">
-        <f>E25*$I$25</f>
+        <f t="shared" si="0"/>
         <v>960</v>
       </c>
       <c r="P25">
-        <f>F25*$I$25</f>
+        <f t="shared" si="0"/>
         <v>960</v>
       </c>
       <c r="Q25">
-        <f>G25*$I$25</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="S25" s="3">
@@ -1370,27 +1374,27 @@
         <v>100</v>
       </c>
       <c r="L26">
-        <f>B26*$I$26</f>
+        <f t="shared" ref="L26:Q26" si="1">B26*$I$26</f>
         <v>900</v>
       </c>
       <c r="M26">
-        <f>C26*$I$26</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="N26">
-        <f>D26*$I$26</f>
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
       <c r="O26">
-        <f>E26*$I$26</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="P26">
-        <f>F26*$I$26</f>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="Q26">
-        <f>G26*$I$26</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="S26" s="3">
@@ -1432,27 +1436,27 @@
         <v>43</v>
       </c>
       <c r="L27">
-        <f>B27*$I$27</f>
+        <f t="shared" ref="L27:Q27" si="2">B27*$I$27</f>
         <v>18000</v>
       </c>
       <c r="M27">
-        <f>C27*$I$27</f>
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
       <c r="N27">
-        <f>D27*$I$27</f>
+        <f t="shared" si="2"/>
         <v>8000</v>
       </c>
       <c r="O27">
-        <f>E27*$I$27</f>
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
       <c r="P27">
-        <f>F27*$I$27</f>
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
       <c r="Q27">
-        <f>G27*$I$27</f>
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
       <c r="S27" s="3">
@@ -1602,28 +1606,28 @@
       <c r="I33" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="10">
-        <f>L34/B32</f>
+      <c r="L33" s="61">
+        <f t="shared" ref="L33:Q33" si="3">L34/B32</f>
         <v>4841.2966666666662</v>
       </c>
-      <c r="M33" s="10">
-        <f>M34/C32</f>
+      <c r="M33" s="61">
+        <f t="shared" si="3"/>
         <v>4487.5</v>
       </c>
-      <c r="N33" s="10">
-        <f>N34/D32</f>
+      <c r="N33" s="61">
+        <f t="shared" si="3"/>
         <v>6521.875</v>
       </c>
-      <c r="O33" s="10">
-        <f>O34/E32</f>
+      <c r="O33" s="61">
+        <f t="shared" si="3"/>
         <v>5407.84375</v>
       </c>
-      <c r="P33" s="10">
-        <f>P34/F32</f>
+      <c r="P33" s="61">
+        <f t="shared" si="3"/>
         <v>4225</v>
       </c>
-      <c r="Q33" s="10">
-        <f>Q34/G32</f>
+      <c r="Q33" s="61">
+        <f t="shared" si="3"/>
         <v>8003.0966666666673</v>
       </c>
       <c r="T33" s="11">
@@ -1649,27 +1653,27 @@
         <v>13</v>
       </c>
       <c r="L34" s="10">
-        <f>SUM(L24:L28)</f>
+        <f t="shared" ref="L34:Q34" si="4">SUM(L24:L28)</f>
         <v>43571.67</v>
       </c>
       <c r="M34" s="10">
-        <f>SUM(M24:M28)</f>
+        <f t="shared" si="4"/>
         <v>35900</v>
       </c>
       <c r="N34" s="10">
-        <f>SUM(N24:N28)</f>
+        <f t="shared" si="4"/>
         <v>26087.5</v>
       </c>
       <c r="O34" s="10">
-        <f>SUM(O24:O28)</f>
+        <f t="shared" si="4"/>
         <v>43262.75</v>
       </c>
       <c r="P34" s="10">
-        <f>SUM(P24:P28)</f>
+        <f t="shared" si="4"/>
         <v>33800</v>
       </c>
       <c r="Q34" s="10">
-        <f>SUM(Q24:Q28)</f>
+        <f t="shared" si="4"/>
         <v>24009.29</v>
       </c>
       <c r="R34" s="22"/>
